--- a/pages/Data_Toko_Helm.xlsx
+++ b/pages/Data_Toko_Helm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154D3BA-A6C6-4403-AA7F-863C35A41286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1B11F8-9961-4365-976B-4029320ADF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{2153AA7E-418D-44CF-9B9F-2194663E2F1D}"/>
+    <workbookView xWindow="8385" yWindow="1890" windowWidth="19260" windowHeight="11775" xr2:uid="{2153AA7E-418D-44CF-9B9F-2194663E2F1D}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -1369,9 +1369,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1409,7 +1409,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1515,7 +1515,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1657,7 +1657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1667,16 +1667,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0835086B-0793-4F16-8FE5-D0ADFA948EEE}">
   <dimension ref="A1:AC398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B372" sqref="B372"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.44140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="21.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
@@ -1776,10 +1776,10 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>1925000</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1803,22 +1803,22 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1827,22 +1827,22 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -1851,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>151</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>153</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>154</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>156</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>157</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>158</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>159</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>162</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>163</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>164</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>165</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>166</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>167</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>168</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>171</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>172</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>173</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>174</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>176</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>177</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>178</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>179</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>180</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>181</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>182</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>183</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>184</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>185</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>186</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>187</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>188</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>189</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>190</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>191</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>192</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>194</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>195</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>196</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>197</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>198</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>199</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>200</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>201</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>202</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>203</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>204</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>205</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>206</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>207</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>208</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>209</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>210</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>211</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>212</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>213</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>214</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>215</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>216</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>217</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>218</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>219</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>220</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>222</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>223</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>224</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>225</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>226</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>227</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>228</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>229</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>230</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>231</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>232</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>233</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>234</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>235</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>236</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>237</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>238</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>239</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>240</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>241</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>242</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>243</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>244</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>245</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>246</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>247</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>248</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>249</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>250</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>251</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>252</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>253</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>254</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>255</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>256</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>257</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>258</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>259</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>260</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>261</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>262</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>263</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>264</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>265</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>266</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>267</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>268</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>269</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>270</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>271</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>272</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>273</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>274</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>275</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>276</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>277</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>278</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>279</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>280</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>281</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>282</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>283</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>284</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>285</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>286</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>287</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>288</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>289</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>290</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>292</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>293</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>294</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>295</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>296</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>297</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>298</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>299</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>300</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>301</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>302</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>303</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>304</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>305</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>306</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>307</v>
       </c>
@@ -15916,7 +15916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>308</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>309</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>310</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>311</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>312</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>313</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>314</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>315</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>316</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>317</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>318</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>319</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>320</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>321</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>322</v>
       </c>
@@ -17251,7 +17251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>323</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>324</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>325</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>326</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>327</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>328</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>329</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>330</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>331</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>332</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>333</v>
       </c>
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>334</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>335</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>336</v>
       </c>
@@ -18497,7 +18497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>337</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>338</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>339</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>340</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>341</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>342</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>343</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>344</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>345</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>346</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>347</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>348</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>349</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>350</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>351</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>352</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>353</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>354</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>355</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>356</v>
       </c>
@@ -20277,7 +20277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>357</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>358</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>359</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>360</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>361</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>362</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>363</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>364</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>365</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>366</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>367</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>368</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>369</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>370</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>371</v>
       </c>
@@ -21612,7 +21612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>372</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>373</v>
       </c>
@@ -21790,7 +21790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>374</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>375</v>
       </c>
@@ -21968,7 +21968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>376</v>
       </c>
@@ -22057,7 +22057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>377</v>
       </c>
@@ -22146,7 +22146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>378</v>
       </c>
@@ -22235,7 +22235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>379</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>380</v>
       </c>
@@ -22413,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>381</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>382</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>383</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>384</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>385</v>
       </c>
@@ -22858,7 +22858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>386</v>
       </c>
@@ -22947,7 +22947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>387</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>388</v>
       </c>
@@ -23125,7 +23125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>389</v>
       </c>
@@ -23214,7 +23214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>390</v>
       </c>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>391</v>
       </c>
@@ -23392,7 +23392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>392</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>115</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>116</v>
       </c>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>117</v>
       </c>
@@ -23748,7 +23748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>118</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>119</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>120</v>
       </c>
@@ -24015,7 +24015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>121</v>
       </c>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>122</v>
       </c>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>123</v>
       </c>
@@ -24282,7 +24282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>124</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>125</v>
       </c>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>126</v>
       </c>
@@ -24549,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>127</v>
       </c>
@@ -24638,7 +24638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>128</v>
       </c>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>129</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>130</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>131</v>
       </c>
@@ -24994,7 +24994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>132</v>
       </c>
@@ -25083,7 +25083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>133</v>
       </c>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>134</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>135</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>136</v>
       </c>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>137</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>138</v>
       </c>
@@ -25617,7 +25617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>139</v>
       </c>
@@ -25706,7 +25706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>140</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>141</v>
       </c>
@@ -25884,7 +25884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>142</v>
       </c>
@@ -25973,7 +25973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>143</v>
       </c>
@@ -26062,7 +26062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>144</v>
       </c>
@@ -26151,7 +26151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>111</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>112</v>
       </c>
@@ -26329,7 +26329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>113</v>
       </c>
@@ -26418,7 +26418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>114</v>
       </c>
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>107</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>108</v>
       </c>
@@ -26685,7 +26685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>109</v>
       </c>
@@ -26774,7 +26774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>110</v>
       </c>
@@ -26863,7 +26863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>100</v>
       </c>
@@ -26952,7 +26952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>101</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>102</v>
       </c>
@@ -27130,7 +27130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>103</v>
       </c>
@@ -27219,7 +27219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>104</v>
       </c>
@@ -27308,7 +27308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>105</v>
       </c>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>106</v>
       </c>
@@ -27486,7 +27486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>63</v>
       </c>
@@ -27575,7 +27575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>64</v>
       </c>
@@ -27664,7 +27664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>65</v>
       </c>
@@ -27753,7 +27753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>50</v>
       </c>
@@ -27842,7 +27842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>51</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>52</v>
       </c>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>53</v>
       </c>
@@ -28109,7 +28109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>54</v>
       </c>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>55</v>
       </c>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>56</v>
       </c>
@@ -28376,7 +28376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>57</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>58</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>59</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>60</v>
       </c>
@@ -28732,7 +28732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>61</v>
       </c>
@@ -28821,7 +28821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>62</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>2</v>
       </c>
@@ -28999,7 +28999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>3</v>
       </c>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -29177,7 +29177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -29266,7 +29266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -29355,7 +29355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -29444,7 +29444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -29533,7 +29533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>9</v>
       </c>
@@ -29622,7 +29622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>10</v>
       </c>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>12</v>
       </c>
@@ -29889,7 +29889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>13</v>
       </c>
@@ -29978,7 +29978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -30067,7 +30067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -30156,7 +30156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>16</v>
       </c>
@@ -30245,7 +30245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>17</v>
       </c>
@@ -30334,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>18</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -30512,7 +30512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>20</v>
       </c>
@@ -30601,7 +30601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>21</v>
       </c>
@@ -30690,7 +30690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>22</v>
       </c>
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>23</v>
       </c>
@@ -30868,7 +30868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>24</v>
       </c>
@@ -30957,7 +30957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>25</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>26</v>
       </c>
@@ -31135,7 +31135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -31224,7 +31224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>28</v>
       </c>
@@ -31313,7 +31313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>29</v>
       </c>
@@ -31402,7 +31402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>30</v>
       </c>
@@ -31491,7 +31491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>31</v>
       </c>
@@ -31580,7 +31580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>66</v>
       </c>
@@ -31669,7 +31669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>67</v>
       </c>
@@ -31758,7 +31758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>68</v>
       </c>
@@ -31847,7 +31847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>69</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>70</v>
       </c>
@@ -32025,7 +32025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>71</v>
       </c>
@@ -32114,7 +32114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>72</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>73</v>
       </c>
@@ -32292,7 +32292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>74</v>
       </c>
@@ -32381,7 +32381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>75</v>
       </c>
@@ -32470,7 +32470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>76</v>
       </c>
@@ -32559,7 +32559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>77</v>
       </c>
@@ -32648,7 +32648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>78</v>
       </c>
@@ -32737,7 +32737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>79</v>
       </c>
@@ -32826,7 +32826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>80</v>
       </c>
@@ -32915,7 +32915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>81</v>
       </c>
@@ -33004,7 +33004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>82</v>
       </c>
@@ -33093,7 +33093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>83</v>
       </c>
@@ -33182,7 +33182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>84</v>
       </c>
@@ -33271,7 +33271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>85</v>
       </c>
@@ -33360,7 +33360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>86</v>
       </c>
@@ -33449,7 +33449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>87</v>
       </c>
@@ -33538,7 +33538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>88</v>
       </c>
@@ -33627,7 +33627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>89</v>
       </c>
@@ -33716,7 +33716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>90</v>
       </c>
@@ -33805,7 +33805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>91</v>
       </c>
@@ -33894,7 +33894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>92</v>
       </c>
@@ -33983,7 +33983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>93</v>
       </c>
@@ -34072,7 +34072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>94</v>
       </c>
@@ -34161,7 +34161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>95</v>
       </c>
@@ -34250,7 +34250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>96</v>
       </c>
@@ -34339,7 +34339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>393</v>
       </c>
@@ -34428,7 +34428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>394</v>
       </c>
@@ -34517,7 +34517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>395</v>
       </c>
@@ -34606,7 +34606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>396</v>
       </c>
@@ -34695,7 +34695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>397</v>
       </c>
@@ -34784,7 +34784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>398</v>
       </c>
@@ -34873,7 +34873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>399</v>
       </c>
@@ -34962,7 +34962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>400</v>
       </c>
@@ -35051,7 +35051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>401</v>
       </c>
@@ -35140,7 +35140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>402</v>
       </c>
@@ -35229,7 +35229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>403</v>
       </c>
@@ -35318,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>404</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>405</v>
       </c>
@@ -35496,7 +35496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>406</v>
       </c>
@@ -35585,7 +35585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>407</v>
       </c>
@@ -35674,7 +35674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>408</v>
       </c>
@@ -35763,7 +35763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>409</v>
       </c>
@@ -35852,7 +35852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>410</v>
       </c>
@@ -35941,7 +35941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>411</v>
       </c>
@@ -36030,7 +36030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>412</v>
       </c>
@@ -36119,7 +36119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>413</v>
       </c>
@@ -36208,7 +36208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>414</v>
       </c>
@@ -36297,7 +36297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>415</v>
       </c>
@@ -36386,7 +36386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>416</v>
       </c>
@@ -36475,7 +36475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>417</v>
       </c>
@@ -36564,7 +36564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>418</v>
       </c>
@@ -36653,7 +36653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>419</v>
       </c>
@@ -36742,7 +36742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>420</v>
       </c>
@@ -36831,7 +36831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>421</v>
       </c>
@@ -36920,7 +36920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>422</v>
       </c>
@@ -37009,7 +37009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>423</v>
       </c>
@@ -37105,6 +37105,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CAE2B5CB9DC9B4BB700EF5DBFBFE5D3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bf6c53566178752f5ec25f052cd5f271">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74b8d1c8-4d6e-47dd-8ecc-f5f97d6ddeb1" xmlns:ns3="022792da-fa0b-4f0b-8a7f-5541c51a4e66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fe0ba769269bb6ea93353b8da4bf8ff" ns2:_="" ns3:_="">
     <xsd:import namespace="74b8d1c8-4d6e-47dd-8ecc-f5f97d6ddeb1"/>
@@ -37299,16 +37308,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478B9805-7E40-4913-83BB-27C4F3FC2348}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1820490-1F8F-4958-9EDC-D4A533EF73BE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37325,12 +37333,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{478B9805-7E40-4913-83BB-27C4F3FC2348}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>